--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2296,10 +2308,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2343,28 +2355,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2389,28 +2401,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2527,10 +2539,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2574,28 +2586,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2620,28 +2632,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2729,10 +2741,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2776,28 +2788,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2822,28 +2834,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3422,10 +3434,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3469,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3515,28 +3527,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3682,10 +3694,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3729,28 +3741,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3775,28 +3787,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3884,10 +3896,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3931,28 +3943,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3977,28 +3989,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4144,10 +4156,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4191,28 +4203,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4237,28 +4249,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4358,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4393,28 +4405,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4451,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4548,10 +4560,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4595,28 +4607,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4641,28 +4653,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4820,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4855,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4913,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5051,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5086,28 +5098,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5144,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5443,10 +5455,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5490,28 +5502,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5536,28 +5548,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5645,10 +5657,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5692,28 +5704,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5738,28 +5750,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5818,10 +5830,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5865,28 +5877,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5911,28 +5923,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6424,10 +6436,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6471,28 +6483,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6517,28 +6529,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6638,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6685,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6731,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6828,10 +6840,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6875,28 +6887,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6921,28 +6933,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7001,10 +7013,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7048,28 +7060,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7094,28 +7106,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7203,10 +7215,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7250,28 +7262,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7296,28 +7308,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7417,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7452,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7510,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7578,10 +7590,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7625,28 +7637,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7671,28 +7683,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7751,10 +7763,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7798,28 +7810,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7844,28 +7856,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7953,10 +7965,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8000,28 +8012,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8046,28 +8058,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8126,10 +8138,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8173,28 +8185,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8219,28 +8231,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8299,10 +8311,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8346,28 +8358,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8392,28 +8404,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8501,10 +8513,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8548,28 +8560,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8594,28 +8606,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8703,10 +8715,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8750,28 +8762,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8796,28 +8808,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8876,10 +8888,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8923,28 +8935,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8969,28 +8981,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9049,10 +9061,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9096,28 +9108,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9142,28 +9154,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9222,10 +9234,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9269,28 +9281,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9315,28 +9327,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9395,10 +9407,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
